--- a/fake_datas.xlsx
+++ b/fake_datas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\PTUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{91630F85-209C-4CF6-A40B-76ECE0F861C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74139BC7-F73E-49A5-84F8-C2C1858BCB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="70" yWindow="1050" windowWidth="15600" windowHeight="7460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>FK_product_cat_ID</t>
   </si>
@@ -222,12 +222,39 @@
   </si>
   <si>
     <t>../assets/images/gba_trans.webp</t>
+  </si>
+  <si>
+    <t>../assets/images/ps1.jpg</t>
+  </si>
+  <si>
+    <t>../assets/images/ps2.jpg</t>
+  </si>
+  <si>
+    <t>../assets/images/ps3.jpg</t>
+  </si>
+  <si>
+    <t>../assets/images/ps4.webp</t>
+  </si>
+  <si>
+    <t>../assets/images/psvita.webp</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>PS4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1528,11 +1555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="F6" sqref="F6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,7 +1608,7 @@
         <v>60</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="0">_xlfn.CONCAT($F$1,B3,$L$1,C3,$M$1)</f>
+        <f t="shared" ref="F3:F10" si="0">_xlfn.CONCAT($F$1,B3,$L$1,C3,$M$1)</f>
         <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100026','../assets/images/gameboycolor.webp');</v>
       </c>
     </row>
@@ -1598,6 +1625,81 @@
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100027','../assets/images/gba_trans.webp');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>100009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100009','../assets/images/ps1.jpg');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>100010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100010','../assets/images/ps2.jpg');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>100011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100011','../assets/images/ps3.jpg');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>100012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100012','../assets/images/ps4.webp');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>100033</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `pictures`(`FK_picture_product_ID`, `picture_path`) VALUES ('100033','../assets/images/psvita.webp');</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1773,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
